--- a/medicine/Pharmacie/Classe_ATC_R05/Classe_ATC_R05.xlsx
+++ b/medicine/Pharmacie/Classe_ATC_R05/Classe_ATC_R05.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classe ATC R05, dénommée « Médicaments contre la toux et le rhume », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux[1]. La classe ATC vétérinaire correspondante dans la classification ATCvet est QR05[2]. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique R de la classification, intitulé « Système respiratoire ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classe ATC R05, dénommée « Médicaments contre la toux et le rhume », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux. La classe ATC vétérinaire correspondante dans la classification ATCvet est QR05. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique R de la classification, intitulé « Système respiratoire ».
 </t>
         </is>
       </c>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>R05CA Expectorants
-R05CA01 Tyloxapol
+          <t>R05CA Expectorants</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>R05CA01 Tyloxapol
 R05CA02 Iodure de potassium
 R05CA03 Guaïfénésine
 R05CA04 Ipecacuanha
@@ -526,9 +543,43 @@
 R05CA10 Associations
 R05CA11 Lévoverbénone
 R05CA12 Hederae helicis folium
-R05CA13 Cinéole
-R05CB Mucolytiques
-R05CB01 Acétylcystéine
+R05CA13 Cinéole</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Classe_ATC_R05</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_R05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>R05C Expectorants, sauf les associations avec des suppresseurs de la toux</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>R05CB Mucolytiques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>R05CB01 Acétylcystéine
 R05CB02 Bromhexine
 R05CB03 Carbocystéine
 R05CB04 Éprazinone
@@ -547,34 +598,39 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Classe_ATC_R05</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Pharmacie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Classe_ATC_R05</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>R05D Antitussifs, sauf les associations avec des expectorants</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>R05DA Alcaloïdes de l'opium et dérivés
-R05DA01 Éthylmorphine
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>R05DA Alcaloïdes de l'opium et dérivés</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>R05DA01 Éthylmorphine
 R05DA03 Hydrocodone
 R05DA04 Codéine
 R05DA05 Alcaloïdes de l'opium avec de la morphine
@@ -586,9 +642,43 @@
 R05DA11 Dimémorfan
 R05DA12 Acétyldihydrocodéine
 R05DA20 Associations
-QR05DA90 Butorphanol
-R05DB Autres antitussifs
-R05DB01 Benzonatate
+QR05DA90 Butorphanol</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Classe_ATC_R05</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_R05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>R05D Antitussifs, sauf les associations avec des expectorants</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>R05DB Autres antitussifs</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>R05DB01 Benzonatate
 R05DB02 Benpropérine
 R05DB03 Clobutinol
 R05DB04 Isoaminile
@@ -617,66 +707,107 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Classe_ATC_R05</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Pharmacie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Classe_ATC_R05</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>R05F Antitussifs et expectorants, associations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>R05FA Dérivés de l'opium et expectorants
-R05FA01 Dérivés de l'opium et mucolytiques
-R05FA02 Dérivés de l'opium et expectorants
-R05FB Autres antitussifs et expectorants
-R05FB01 Antitussifs et mucolytiques
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>R05FA Dérivés de l'opium et expectorants</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>R05FA01 Dérivés de l'opium et mucolytiques
+R05FA02 Dérivés de l'opium et expectorants</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Classe_ATC_R05</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_R05</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>R05F Antitussifs et expectorants, associations</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>R05FB Autres antitussifs et expectorants</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>R05FB01 Antitussifs et mucolytiques
 R05FB02 Antitussifs et expectorants</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Classe_ATC_R05</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Pharmacie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Classe_ATC_R05</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>R05X Autres associations anti-rhume</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Vide.</t>
         </is>
